--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value136.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value136.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9375799536938221</v>
+        <v>0.9358363151550293</v>
       </c>
       <c r="B1">
-        <v>1.805915959640259</v>
+        <v>2.763909339904785</v>
       </c>
       <c r="C1">
-        <v>3.399205663076614</v>
+        <v>4.214782238006592</v>
       </c>
       <c r="D1">
-        <v>2.45091799926073</v>
+        <v>0.9318075180053711</v>
       </c>
       <c r="E1">
-        <v>1.0318454483672</v>
+        <v>0.8098978400230408</v>
       </c>
     </row>
   </sheetData>
